--- a/PartiallyAutomated/watchListExporter.xlsx
+++ b/PartiallyAutomated/watchListExporter.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aronlindell/code/Trading/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aronlindell/code/Trading/PartiallyAutomated/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,9 +53,6 @@
     <t>secType</t>
   </si>
   <si>
-    <t>expiration</t>
-  </si>
-  <si>
     <t>strike</t>
   </si>
   <si>
@@ -80,7 +77,10 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Open</t>
+    <t>expiry</t>
+  </si>
+  <si>
+    <t>underlyingID</t>
   </si>
 </sst>
 </file>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,7 +435,7 @@
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -458,28 +458,27 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -496,14 +495,14 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="b">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>0</v>
+      <c r="I2">
+        <v>215606586</v>
       </c>
       <c r="J2">
         <v>20161021</v>
@@ -512,15 +511,15 @@
         <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2">
-        <v>215606586</v>
+        <v>265598</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>111</v>
@@ -537,14 +536,14 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>107113386</v>
       </c>
     </row>
   </sheetData>
